--- a/data/trans_orig/P16B10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAAB6020-3CF9-48F9-9FC2-F55A59B111BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4F55EBB-1B46-4DA3-9B70-5747B1046AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC59A438-F04E-4B56-A6B9-12BAFA02283F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AAFB2F35-EB5C-4060-9A90-AC8C740BAA47}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="183">
   <si>
     <t>Porcentajes de medicinas para el corazón recetados en 2007 (Tasa respuesta: 5,25%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>93,41%</t>
   </si>
   <si>
-    <t>73,08%</t>
+    <t>67,86%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>95,35%</t>
   </si>
   <si>
-    <t>79,52%</t>
+    <t>71,77%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>26,92%</t>
+    <t>32,14%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>4,65%</t>
   </si>
   <si>
-    <t>20,48%</t>
+    <t>28,23%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -133,7 +133,7 @@
     <t>98,11%</t>
   </si>
   <si>
-    <t>90,8%</t>
+    <t>90,57%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -148,7 +148,7 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>9,2%</t>
+    <t>9,43%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -208,7 +208,7 @@
     <t>96,03%</t>
   </si>
   <si>
-    <t>78,93%</t>
+    <t>79,79%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -223,7 +223,7 @@
     <t>3,97%</t>
   </si>
   <si>
-    <t>21,07%</t>
+    <t>20,21%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -244,13 +244,13 @@
     <t>95,89%</t>
   </si>
   <si>
-    <t>78,05%</t>
+    <t>79,41%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>89,16%</t>
+    <t>89,37%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -259,13 +259,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>21,95%</t>
+    <t>20,59%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>10,84%</t>
+    <t>10,63%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -274,97 +274,91 @@
     <t>95,7%</t>
   </si>
   <si>
-    <t>83,83%</t>
+    <t>85,23%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>81,86%</t>
+    <t>83,06%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>16,17%</t>
+    <t>14,77%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>18,14%</t>
+    <t>16,94%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>92,53%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>7,47%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -493,30 +487,24 @@
     <t>96,1%</t>
   </si>
   <si>
-    <t>80,66%</t>
+    <t>83,01%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
     <t>5,45%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>19,34%</t>
+    <t>16,99%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
     <t>90,95%</t>
   </si>
   <si>
@@ -538,25 +526,19 @@
     <t>90,02%</t>
   </si>
   <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
   </si>
   <si>
     <t>96,32%</t>
@@ -583,13 +565,13 @@
     <t>98,9%</t>
   </si>
   <si>
-    <t>96,56%</t>
+    <t>96,08%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,38%</t>
+    <t>98,35%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -598,13 +580,13 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,44%</t>
+    <t>3,92%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>1,65%</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16843320-DCC2-4B5B-936B-411B2D8221D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AEAE4F-9ED7-496F-A83F-D11FEAD76A90}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2401,7 +2383,7 @@
         <v>95</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M28" s="7">
         <v>334</v>
@@ -2410,13 +2392,13 @@
         <v>333765</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2413,13 @@
         <v>2740</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2446,13 +2428,13 @@
         <v>5371</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2461,13 +2443,13 @@
         <v>8111</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,7 +2505,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3038BA-5B34-4409-9B30-14F526A00B2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974B13C3-3D82-4BF8-95F2-26C5F3DB8E39}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2564,7 +2546,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2669,39 +2651,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,39 +2696,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,39 +2741,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,7 +2808,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2841,7 +2823,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -2880,7 +2862,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2895,7 +2877,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,7 +2948,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -2981,7 +2963,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -2996,7 +2978,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -3020,37 +3002,37 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3118,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -3151,7 +3133,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -3190,7 +3172,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3205,7 +3187,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,7 +3258,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -3291,7 +3273,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -3306,7 +3288,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -3330,7 +3312,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3345,7 +3327,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3360,7 +3342,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,7 +3443,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3515,7 +3497,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3583,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3616,7 +3598,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -3655,7 +3637,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3670,7 +3652,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,7 +3723,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -3756,7 +3738,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -3771,7 +3753,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>15</v>
@@ -3795,7 +3777,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3810,7 +3792,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3825,7 +3807,7 @@
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,7 +3878,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>15</v>
@@ -3911,7 +3893,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -3926,7 +3908,7 @@
         <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>15</v>
@@ -3950,37 +3932,37 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M29" s="7">
-        <v>0</v>
-      </c>
-      <c r="N29" s="7">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,7 +4018,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +4042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4525FFD-2D0F-48C7-B427-996FC2722744}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F032DF-9865-445A-8722-99DF4FA2D3C0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4077,7 +4059,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4187,7 +4169,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -4202,7 +4184,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4217,7 +4199,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -4241,7 +4223,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4256,7 +4238,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4271,7 +4253,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,7 +4324,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4354,10 +4336,10 @@
         <v>26713</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4369,10 +4351,10 @@
         <v>61198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4396,7 +4378,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4405,13 +4387,13 @@
         <v>1083</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4420,13 +4402,13 @@
         <v>1083</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,7 +4479,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -4512,7 +4494,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4551,7 +4533,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4566,7 +4548,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4652,7 +4634,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -4667,7 +4649,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -4682,7 +4664,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -4706,7 +4688,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4721,7 +4703,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4736,7 +4718,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,7 +4789,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -4819,10 +4801,10 @@
         <v>8605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4834,10 +4816,10 @@
         <v>21347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4861,7 +4843,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4870,13 +4852,13 @@
         <v>954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4885,13 +4867,13 @@
         <v>954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,7 +4944,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -5016,7 +4998,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5117,7 +5099,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -5147,7 +5129,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -5171,7 +5153,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5201,7 +5183,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,7 +5254,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -5287,7 +5269,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5296,13 +5278,13 @@
         <v>85</v>
       </c>
       <c r="N25" s="7">
-        <v>93167</v>
+        <v>93166</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>15</v>
@@ -5326,7 +5308,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5341,7 +5323,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5356,7 +5338,7 @@
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,7 +5380,7 @@
         <v>85</v>
       </c>
       <c r="N27" s="7">
-        <v>93167</v>
+        <v>93166</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>15</v>
@@ -5427,7 +5409,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>15</v>
@@ -5439,10 +5421,10 @@
         <v>183062</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5454,10 +5436,10 @@
         <v>383469</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -5481,7 +5463,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5490,13 +5472,13 @@
         <v>2037</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5505,13 +5487,13 @@
         <v>2037</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,7 +5549,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4F55EBB-1B46-4DA3-9B70-5747B1046AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4D702ED-FD38-489A-9DE5-FDDEF984FEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AAFB2F35-EB5C-4060-9A90-AC8C740BAA47}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{579AE989-7243-4B4C-882E-A386821AB722}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="189">
   <si>
     <t>Porcentajes de medicinas para el corazón recetados en 2007 (Tasa respuesta: 5,25%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>93,41%</t>
   </si>
   <si>
-    <t>67,86%</t>
+    <t>68,11%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>95,35%</t>
   </si>
   <si>
-    <t>71,77%</t>
+    <t>71,29%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,14%</t>
+    <t>31,89%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>4,65%</t>
   </si>
   <si>
-    <t>28,23%</t>
+    <t>28,71%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -127,13 +127,13 @@
     <t>95,45%</t>
   </si>
   <si>
-    <t>77,87%</t>
+    <t>79,59%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>90,57%</t>
+    <t>92,23%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -142,13 +142,13 @@
     <t>4,55%</t>
   </si>
   <si>
-    <t>22,13%</t>
+    <t>20,41%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>9,43%</t>
+    <t>7,77%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -202,13 +202,13 @@
     <t>88,73%</t>
   </si>
   <si>
-    <t>51,74%</t>
+    <t>52,47%</t>
   </si>
   <si>
     <t>96,03%</t>
   </si>
   <si>
-    <t>79,79%</t>
+    <t>77,53%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -217,13 +217,13 @@
     <t>11,27%</t>
   </si>
   <si>
-    <t>48,26%</t>
+    <t>47,53%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>20,21%</t>
+    <t>22,47%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -244,13 +244,13 @@
     <t>95,89%</t>
   </si>
   <si>
-    <t>79,41%</t>
+    <t>77,81%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>89,37%</t>
+    <t>89,48%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -259,13 +259,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>20,59%</t>
+    <t>22,19%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>10,63%</t>
+    <t>10,52%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -274,271 +274,289 @@
     <t>95,7%</t>
   </si>
   <si>
-    <t>85,23%</t>
+    <t>85,88%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>83,06%</t>
+    <t>82,28%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>14,77%</t>
+    <t>14,12%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>16,94%</t>
+    <t>17,72%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>92,53%</t>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicinas para el corazón recetados en 2012 (Tasa respuesta: 4,98%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicinas para el corazón recetados en 2016 (Tasa respuesta: 5,43%)</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicinas para el corazón recetados en 2012 (Tasa respuesta: 4,98%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicinas para el corazón recetados en 2015 (Tasa respuesta: 5,43%)</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
+    <t>17,66%</t>
   </si>
   <si>
     <t>96,32%</t>
@@ -565,13 +583,13 @@
     <t>98,9%</t>
   </si>
   <si>
-    <t>96,08%</t>
+    <t>96,24%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,35%</t>
+    <t>98,07%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -580,13 +598,13 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,92%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,93%</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AEAE4F-9ED7-496F-A83F-D11FEAD76A90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5942282-00AB-4CD4-A3A3-7B7335BBA69D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2383,7 +2401,7 @@
         <v>95</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="M28" s="7">
         <v>334</v>
@@ -2392,13 +2410,13 @@
         <v>333765</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2431,13 @@
         <v>2740</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2428,13 +2446,13 @@
         <v>5371</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2443,13 +2461,13 @@
         <v>8111</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,7 +2523,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2529,7 +2547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974B13C3-3D82-4BF8-95F2-26C5F3DB8E39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8757CEE-4AED-40BE-ACD0-68AAAA60455F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2546,7 +2564,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2651,39 +2669,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,39 +2714,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,39 +2759,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,7 +2826,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2823,7 +2841,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -2862,7 +2880,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2877,7 +2895,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,7 +2966,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -2963,7 +2981,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -2978,7 +2996,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -3002,7 +3020,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3017,7 +3035,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3032,7 +3050,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3136,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -3133,7 +3151,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -3172,7 +3190,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3187,7 +3205,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3276,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -3273,7 +3291,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -3288,7 +3306,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -3312,7 +3330,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3327,7 +3345,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3342,7 +3360,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,7 +3461,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3497,7 +3515,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,7 +3601,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3598,7 +3616,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -3637,7 +3655,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3652,7 +3670,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,7 +3741,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -3738,7 +3756,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -3753,7 +3771,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>15</v>
@@ -3777,7 +3795,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3792,7 +3810,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3807,7 +3825,7 @@
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,7 +3896,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>15</v>
@@ -3893,7 +3911,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -3908,7 +3926,7 @@
         <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>15</v>
@@ -3932,7 +3950,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3947,7 +3965,7 @@
         <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -3962,7 +3980,7 @@
         <v>22</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,7 +4036,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4042,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F032DF-9865-445A-8722-99DF4FA2D3C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD549A43-D143-4CF0-9588-ED062528FEB9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4059,7 +4077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4169,7 +4187,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -4184,7 +4202,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4199,7 +4217,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -4223,7 +4241,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4238,7 +4256,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4253,7 +4271,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,7 +4342,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4336,10 +4354,10 @@
         <v>26713</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4351,10 +4369,10 @@
         <v>61198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4378,7 +4396,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4387,13 +4405,13 @@
         <v>1083</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4402,13 +4420,13 @@
         <v>1083</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,7 +4497,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -4494,7 +4512,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4533,7 +4551,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4548,7 +4566,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4634,7 +4652,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -4649,7 +4667,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -4664,7 +4682,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -4688,7 +4706,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4703,7 +4721,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4718,7 +4736,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,7 +4807,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -4801,10 +4819,10 @@
         <v>8605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4816,10 +4834,10 @@
         <v>21347</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4843,7 +4861,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4852,13 +4870,13 @@
         <v>954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4867,13 +4885,13 @@
         <v>954</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,7 +4962,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>15</v>
@@ -4998,7 +5016,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5099,7 +5117,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -5129,7 +5147,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -5153,7 +5171,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5183,7 +5201,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,7 +5272,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -5269,7 +5287,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5278,13 +5296,13 @@
         <v>85</v>
       </c>
       <c r="N25" s="7">
-        <v>93166</v>
+        <v>93167</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>15</v>
@@ -5308,7 +5326,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5323,7 +5341,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5338,7 +5356,7 @@
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,7 +5398,7 @@
         <v>85</v>
       </c>
       <c r="N27" s="7">
-        <v>93166</v>
+        <v>93167</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>15</v>
@@ -5409,7 +5427,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>15</v>
@@ -5421,10 +5439,10 @@
         <v>183062</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5436,10 +5454,10 @@
         <v>383469</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -5463,7 +5481,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5472,13 +5490,13 @@
         <v>2037</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5487,13 +5505,13 @@
         <v>2037</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,7 +5567,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4D702ED-FD38-489A-9DE5-FDDEF984FEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40ADF779-E22B-4C6B-A11F-AB0797F59AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{579AE989-7243-4B4C-882E-A386821AB722}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3127AF2-F3EE-451F-A17B-6DC4A1F04CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,13 +70,13 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>68,11%</t>
+    <t>73,08%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -91,7 +91,7 @@
     <t>95,35%</t>
   </si>
   <si>
-    <t>71,29%</t>
+    <t>79,52%</t>
   </si>
   <si>
     <t>No</t>
@@ -103,7 +103,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,89%</t>
+    <t>26,92%</t>
   </si>
   <si>
     <t>0%</t>
@@ -115,7 +115,7 @@
     <t>4,65%</t>
   </si>
   <si>
-    <t>28,71%</t>
+    <t>20,48%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -127,13 +127,13 @@
     <t>95,45%</t>
   </si>
   <si>
-    <t>79,59%</t>
+    <t>77,87%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>92,23%</t>
+    <t>90,8%</t>
   </si>
   <si>
     <t>5,96%</t>
@@ -142,13 +142,13 @@
     <t>4,55%</t>
   </si>
   <si>
-    <t>20,41%</t>
+    <t>22,13%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>7,77%</t>
+    <t>9,2%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -202,13 +202,13 @@
     <t>88,73%</t>
   </si>
   <si>
-    <t>52,47%</t>
+    <t>51,74%</t>
   </si>
   <si>
     <t>96,03%</t>
   </si>
   <si>
-    <t>77,53%</t>
+    <t>78,93%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -217,13 +217,13 @@
     <t>11,27%</t>
   </si>
   <si>
-    <t>47,53%</t>
+    <t>48,26%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>22,47%</t>
+    <t>21,07%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -244,13 +244,13 @@
     <t>95,89%</t>
   </si>
   <si>
-    <t>77,81%</t>
+    <t>78,05%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>89,48%</t>
+    <t>89,16%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -259,13 +259,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>22,19%</t>
+    <t>21,95%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>10,52%</t>
+    <t>10,84%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -274,97 +274,97 @@
     <t>95,7%</t>
   </si>
   <si>
-    <t>85,88%</t>
+    <t>83,83%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>82,28%</t>
+    <t>81,86%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>87,57%</t>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>8,13%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -493,13 +493,13 @@
     <t>96,1%</t>
   </si>
   <si>
-    <t>80,14%</t>
+    <t>80,66%</t>
   </si>
   <si>
     <t>98,26%</t>
   </si>
   <si>
-    <t>92,76%</t>
+    <t>91,34%</t>
   </si>
   <si>
     <t>5,45%</t>
@@ -508,13 +508,13 @@
     <t>3,9%</t>
   </si>
   <si>
-    <t>19,86%</t>
+    <t>19,34%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>7,24%</t>
+    <t>8,66%</t>
   </si>
   <si>
     <t>90,95%</t>
@@ -538,25 +538,25 @@
     <t>90,02%</t>
   </si>
   <si>
-    <t>57,24%</t>
+    <t>47,96%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>82,34%</t>
+    <t>71,38%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>42,76%</t>
+    <t>52,04%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>17,66%</t>
+    <t>28,62%</t>
   </si>
   <si>
     <t>96,32%</t>
@@ -583,13 +583,13 @@
     <t>98,9%</t>
   </si>
   <si>
-    <t>96,24%</t>
+    <t>96,56%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,07%</t>
+    <t>98,38%</t>
   </si>
   <si>
     <t>0,95%</t>
@@ -598,13 +598,13 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>3,44%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>1,93%</t>
+    <t>1,62%</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5942282-00AB-4CD4-A3A3-7B7335BBA69D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFAFB72-6558-4600-8861-C254DF30EFE4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2547,7 +2547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8757CEE-4AED-40BE-ACD0-68AAAA60455F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C683B106-F981-47BD-B70A-E57EA7946193}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4060,7 +4060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD549A43-D143-4CF0-9588-ED062528FEB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3CE3CD-3527-46A0-9ACF-8FB205972C43}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B10-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B10-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40ADF779-E22B-4C6B-A11F-AB0797F59AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0CC0FB3-F27D-4E1E-9110-28D997B77CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3127AF2-F3EE-451F-A17B-6DC4A1F04CEE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2793774F-CB5D-4D06-883A-EAD3B1B004EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="188">
   <si>
     <t>Porcentajes de medicinas para el corazón recetados en 2007 (Tasa respuesta: 5,25%)</t>
   </si>
@@ -373,7 +373,16 @@
     <t>Porcentajes de medicinas para el corazón recetados en 2012 (Tasa respuesta: 4,98%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -406,130 +415,118 @@
     <t>4,66%</t>
   </si>
   <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>Porcentajes de medicinas para el corazón recetados en 2016 (Tasa respuesta: 5,43%)</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>97,3%</t>
+    <t>96,76%</t>
   </si>
   <si>
     <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>Porcentajes de medicinas para el corazón recetados en 2016 (Tasa respuesta: 5,43%)</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
   </si>
   <si>
     <t>3,24%</t>
@@ -1016,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFAFB72-6558-4600-8861-C254DF30EFE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1247E82-944E-4E59-86EB-FC8C98A2B271}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2547,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C683B106-F981-47BD-B70A-E57EA7946193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FE5F13-39EC-4EFD-B016-CB79643BA591}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2665,43 +2662,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>12834</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15653</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="N4" s="7">
+        <v>28487</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,41 +2715,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,43 +2764,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12834</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15653</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="N6" s="7">
+        <v>28487</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,7 +2841,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2841,7 +2856,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -2880,7 +2895,7 @@
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2895,7 +2910,7 @@
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,7 +2981,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -2981,7 +2996,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -2996,7 +3011,7 @@
         <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>15</v>
@@ -3020,7 +3035,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3035,7 +3050,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3050,7 +3065,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,46 +3127,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>40329</v>
+        <v>27495</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>34978</v>
+        <v>19324</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>75307</v>
+        <v>46819</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -3175,7 +3190,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3190,7 +3205,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3205,7 +3220,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,10 +3229,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D15" s="7">
-        <v>40329</v>
+        <v>27495</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -3229,10 +3244,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I15" s="7">
-        <v>34978</v>
+        <v>19324</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -3244,10 +3259,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="N15" s="7">
-        <v>75307</v>
+        <v>46819</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -3276,7 +3291,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -3306,7 +3321,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -3330,23 +3345,23 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="M17" s="7">
         <v>0</v>
       </c>
@@ -3360,7 +3375,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,7 +3476,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>15</v>
@@ -3515,7 +3530,7 @@
         <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,7 +3616,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>15</v>
@@ -3616,7 +3631,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -3655,22 +3670,22 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,7 +3756,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -3756,7 +3771,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -3771,7 +3786,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>15</v>
@@ -3795,7 +3810,7 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3810,7 +3825,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3825,7 +3840,7 @@
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,7 +3911,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>15</v>
@@ -3911,7 +3926,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
@@ -3926,7 +3941,7 @@
         <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>15</v>
@@ -3950,7 +3965,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3965,7 +3980,7 @@
         <v>22</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -3980,7 +3995,7 @@
         <v>22</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,7 +4075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3CE3CD-3527-46A0-9ACF-8FB205972C43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F824F64E-E66B-4573-A491-A3C01E8C90C0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4077,7 +4092,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4187,7 +4202,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>15</v>
@@ -4202,7 +4217,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4217,7 +4232,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -4241,7 +4256,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4256,7 +4271,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4271,7 +4286,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,7 +4357,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -4354,10 +4369,10 @@
         <v>26713</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4369,10 +4384,10 @@
         <v>61198</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4396,7 +4411,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4405,13 +4420,13 @@
         <v>1083</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4420,13 +4435,13 @@
         <v>1083</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,7 +4512,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>15</v>
@@ -4512,7 +4527,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4551,7 +4566,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4566,7 +4581,7 @@
         <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4652,7 +4667,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -4667,7 +4682,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -4682,7 +4697,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -4706,7 +4721,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4721,7 +4736,7 @@
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4736,7 +4751,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,10 +4834,10 @@
         <v>8605</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -4834,10 +4849,10 @@
         <v>21347</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4861,7 +4876,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4870,13 +4885,13 @@
         <v>954</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4885,13 +4900,13 @@
         <v>954</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,7 +5031,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5117,7 +5132,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -5147,7 +5162,7 @@
         <v>13</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>15</v>
@@ -5171,7 +5186,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5201,7 +5216,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,7 +5287,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>15</v>
@@ -5287,7 +5302,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>15</v>
@@ -5302,7 +5317,7 @@
         <v>13</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>15</v>
@@ -5326,37 +5341,37 @@
         <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,7 +5442,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>15</v>
@@ -5439,10 +5454,10 @@
         <v>183062</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
@@ -5454,10 +5469,10 @@
         <v>383469</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -5481,7 +5496,7 @@
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5490,13 +5505,13 @@
         <v>2037</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -5505,13 +5520,13 @@
         <v>2037</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
